--- a/config/config_ml_models_development/MasterTable_process_c.xlsx
+++ b/config/config_ml_models_development/MasterTable_process_c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="10305" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="10905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>CLASIFICACION</t>
   </si>
   <si>
-    <t>TAG_DESCRIPTION</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Variable target del proceso B y proceso C (y variable de entrada al tanque de la etapa siguiente si es existe y si es que es necesaria)</t>
+  </si>
+  <si>
+    <t>FEATURES_NAMES</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,79 +431,79 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_ml_models_development/MasterTable_process_c.xlsx
+++ b/config/config_ml_models_development/MasterTable_process_c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="10905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="11505" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>X3</t>
   </si>
   <si>
-    <t>O6</t>
-  </si>
-  <si>
     <t>Variable de entrada al proceso C. Aparece por primera vez en el flujo. Variable Primaria</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>FEATURES_NAMES</t>
+  </si>
+  <si>
+    <t>O7</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,19 +431,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -454,36 +454,36 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -494,16 +494,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_ml_models_development/MasterTable_process_c.xlsx
+++ b/config/config_ml_models_development/MasterTable_process_c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="11505" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="12105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>USE_ACTUAL_MODEL</t>
   </si>
   <si>
-    <t>MLC</t>
-  </si>
-  <si>
     <t>Variable target del proceso B y proceso C (y variable de entrada al tanque de la etapa siguiente si es existe y si es que es necesaria)</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>O7</t>
+  </si>
+  <si>
+    <t>PR_C_Y2</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -463,15 +463,15 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -483,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
